--- a/Publications/2023_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -321,7 +345,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -341,11 +365,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -359,6 +384,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,28 +409,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2023_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -345,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -366,11 +414,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -385,6 +435,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,28 +461,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2">

--- a/Publications/2023_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
+++ b/Publications/2023_perceptual_confidence/FIG_pairwise_modulation/summary_table.xlsx
@@ -13,7 +13,31 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+  <si>
+    <t>Solo Difference</t>
+  </si>
+  <si>
+    <t>Dyadic Difference</t>
+  </si>
+  <si>
+    <t>Solo Player1</t>
+  </si>
+  <si>
+    <t>Dyadic Player1</t>
+  </si>
+  <si>
+    <t>AUC Player1</t>
+  </si>
+  <si>
+    <t>Solo Player2</t>
+  </si>
+  <si>
+    <t>Dyadic Player2</t>
+  </si>
+  <si>
+    <t>AUC Player2</t>
+  </si>
   <si>
     <t>Solo Difference</t>
   </si>
@@ -393,7 +417,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -416,11 +440,12 @@
     <border/>
     <border/>
     <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -437,6 +462,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,28 +487,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
